--- a/po_analysis_by_asin/B0CH92B3S2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CH92B3S2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,167 +452,167 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>840</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45453</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45460</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>260</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45467</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>180</v>
@@ -620,55 +620,55 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45474</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45481</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>140</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45488</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>760</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45509</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45523</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45530</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>200</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45551</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>20</v>
@@ -676,23 +676,23 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45558</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45565</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45579</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>180</v>
@@ -700,17 +700,97 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45586</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45593</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B34" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B44" t="n">
         <v>180</v>
       </c>
     </row>
@@ -725,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,81 +827,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>690</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1230</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>570</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>960</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1000</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>920</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>240</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>1040</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CH92B3S2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CH92B3S2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -821,7 +822,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -935,6 +936,761 @@
       </c>
       <c r="B15" t="n">
         <v>1040</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>117</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-107.8156053361354</v>
+      </c>
+      <c r="D2" t="n">
+        <v>352.8878526359118</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>120</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-127.9553564065731</v>
+      </c>
+      <c r="D3" t="n">
+        <v>360.4836053134239</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>122</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-107.0880532916763</v>
+      </c>
+      <c r="D4" t="n">
+        <v>353.1876072324823</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>125</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-116.8216850841331</v>
+      </c>
+      <c r="D5" t="n">
+        <v>356.7446756697827</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>128</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-96.87336215715042</v>
+      </c>
+      <c r="D6" t="n">
+        <v>371.4575069693952</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>130</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-110.8060056995178</v>
+      </c>
+      <c r="D7" t="n">
+        <v>365.1630307527028</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>136</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-102.4106441473369</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362.5867914373903</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>139</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-113.60474088651</v>
+      </c>
+      <c r="D9" t="n">
+        <v>373.0090056052965</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>144</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-93.72028888070989</v>
+      </c>
+      <c r="D10" t="n">
+        <v>375.5970089838463</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>149</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-87.85748087054564</v>
+      </c>
+      <c r="D11" t="n">
+        <v>382.37638891834</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>163</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-77.38738791736439</v>
+      </c>
+      <c r="D12" t="n">
+        <v>400.2629960775457</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>166</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-62.43120816204673</v>
+      </c>
+      <c r="D13" t="n">
+        <v>395.476202352789</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>171</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-61.51713509115232</v>
+      </c>
+      <c r="D14" t="n">
+        <v>414.9496011690355</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>174</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-54.08958119714394</v>
+      </c>
+      <c r="D15" t="n">
+        <v>418.8718452218005</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>177</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-57.32305804885316</v>
+      </c>
+      <c r="D16" t="n">
+        <v>420.8421125291805</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>179</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-57.17297093155749</v>
+      </c>
+      <c r="D17" t="n">
+        <v>417.5161262756209</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>182</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-49.02970917071449</v>
+      </c>
+      <c r="D18" t="n">
+        <v>411.6974304729098</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>185</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-51.8154312328558</v>
+      </c>
+      <c r="D19" t="n">
+        <v>418.6991387805896</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>188</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-42.38573500454984</v>
+      </c>
+      <c r="D20" t="n">
+        <v>417.9707423723924</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>190</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-44.5088717253438</v>
+      </c>
+      <c r="D21" t="n">
+        <v>439.5366457072464</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>193</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-34.7310899184376</v>
+      </c>
+      <c r="D22" t="n">
+        <v>419.1336562286577</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>196</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-38.01556362398571</v>
+      </c>
+      <c r="D23" t="n">
+        <v>438.7405909714103</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>199</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-36.0085060271548</v>
+      </c>
+      <c r="D24" t="n">
+        <v>427.9817112156763</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>201</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-49.95994729018464</v>
+      </c>
+      <c r="D25" t="n">
+        <v>439.4064749490021</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>204</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-40.56858916520811</v>
+      </c>
+      <c r="D26" t="n">
+        <v>432.3687288136867</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>207</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-24.06466678379608</v>
+      </c>
+      <c r="D27" t="n">
+        <v>432.5019380378122</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>209</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-19.81298383345885</v>
+      </c>
+      <c r="D28" t="n">
+        <v>431.9542729503685</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>212</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-34.88237528440877</v>
+      </c>
+      <c r="D29" t="n">
+        <v>458.0514456595895</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>223</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-34.25325023612307</v>
+      </c>
+      <c r="D30" t="n">
+        <v>458.9536195565209</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>226</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9968247477412029</v>
+      </c>
+      <c r="D31" t="n">
+        <v>461.6695466160965</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>229</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-18.2350422890955</v>
+      </c>
+      <c r="D32" t="n">
+        <v>461.1425696017527</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>231</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.643392889149597</v>
+      </c>
+      <c r="D33" t="n">
+        <v>476.3093084494071</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>234</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12.37181936150104</v>
+      </c>
+      <c r="D34" t="n">
+        <v>470.4543329245977</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>237</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-5.922746428116626</v>
+      </c>
+      <c r="D35" t="n">
+        <v>474.3152894898026</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>245</v>
+      </c>
+      <c r="C36" t="n">
+        <v>13.19799350058734</v>
+      </c>
+      <c r="D36" t="n">
+        <v>489.9888389734171</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>250</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8.76704516098094</v>
+      </c>
+      <c r="D37" t="n">
+        <v>491.1646070263494</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>253</v>
+      </c>
+      <c r="C38" t="n">
+        <v>28.98448228462037</v>
+      </c>
+      <c r="D38" t="n">
+        <v>506.2623726520646</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>261</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25.17344832978434</v>
+      </c>
+      <c r="D39" t="n">
+        <v>501.6410652243907</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>264</v>
+      </c>
+      <c r="C40" t="n">
+        <v>55.0736751118088</v>
+      </c>
+      <c r="D40" t="n">
+        <v>502.0947779374379</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>267</v>
+      </c>
+      <c r="C41" t="n">
+        <v>23.91496440748239</v>
+      </c>
+      <c r="D41" t="n">
+        <v>496.0279620946152</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>272</v>
+      </c>
+      <c r="C42" t="n">
+        <v>37.28652609848183</v>
+      </c>
+      <c r="D42" t="n">
+        <v>514.3495320984071</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>275</v>
+      </c>
+      <c r="C43" t="n">
+        <v>64.18303946428389</v>
+      </c>
+      <c r="D43" t="n">
+        <v>513.4835015579508</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>278</v>
+      </c>
+      <c r="C44" t="n">
+        <v>46.5186694792175</v>
+      </c>
+      <c r="D44" t="n">
+        <v>522.3153836468186</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>280</v>
+      </c>
+      <c r="C45" t="n">
+        <v>49.06415393643122</v>
+      </c>
+      <c r="D45" t="n">
+        <v>528.4333495805208</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>283</v>
+      </c>
+      <c r="C46" t="n">
+        <v>48.37889144243586</v>
+      </c>
+      <c r="D46" t="n">
+        <v>516.1232701564196</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>286</v>
+      </c>
+      <c r="C47" t="n">
+        <v>31.85919456531957</v>
+      </c>
+      <c r="D47" t="n">
+        <v>507.500683835346</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>288</v>
+      </c>
+      <c r="C48" t="n">
+        <v>59.85217860457219</v>
+      </c>
+      <c r="D48" t="n">
+        <v>530.457692792282</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>291</v>
+      </c>
+      <c r="C49" t="n">
+        <v>52.43309621758998</v>
+      </c>
+      <c r="D49" t="n">
+        <v>517.3712790853696</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>294</v>
+      </c>
+      <c r="C50" t="n">
+        <v>57.64004566347948</v>
+      </c>
+      <c r="D50" t="n">
+        <v>534.777170274275</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>297</v>
+      </c>
+      <c r="C51" t="n">
+        <v>53.19669807961105</v>
+      </c>
+      <c r="D51" t="n">
+        <v>536.4971219345314</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>299</v>
+      </c>
+      <c r="C52" t="n">
+        <v>45.64139261495534</v>
+      </c>
+      <c r="D52" t="n">
+        <v>525.4291754058731</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CH92B3S2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CH92B3S2_po_data.xlsx
@@ -949,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,16 +968,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -986,12 +976,6 @@
       <c r="B2" t="n">
         <v>117</v>
       </c>
-      <c r="C2" t="n">
-        <v>-107.8156053361354</v>
-      </c>
-      <c r="D2" t="n">
-        <v>352.8878526359118</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1000,12 +984,6 @@
       <c r="B3" t="n">
         <v>120</v>
       </c>
-      <c r="C3" t="n">
-        <v>-127.9553564065731</v>
-      </c>
-      <c r="D3" t="n">
-        <v>360.4836053134239</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1014,12 +992,6 @@
       <c r="B4" t="n">
         <v>122</v>
       </c>
-      <c r="C4" t="n">
-        <v>-107.0880532916763</v>
-      </c>
-      <c r="D4" t="n">
-        <v>353.1876072324823</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1028,12 +1000,6 @@
       <c r="B5" t="n">
         <v>125</v>
       </c>
-      <c r="C5" t="n">
-        <v>-116.8216850841331</v>
-      </c>
-      <c r="D5" t="n">
-        <v>356.7446756697827</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1042,12 +1008,6 @@
       <c r="B6" t="n">
         <v>128</v>
       </c>
-      <c r="C6" t="n">
-        <v>-96.87336215715042</v>
-      </c>
-      <c r="D6" t="n">
-        <v>371.4575069693952</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1056,12 +1016,6 @@
       <c r="B7" t="n">
         <v>130</v>
       </c>
-      <c r="C7" t="n">
-        <v>-110.8060056995178</v>
-      </c>
-      <c r="D7" t="n">
-        <v>365.1630307527028</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1070,12 +1024,6 @@
       <c r="B8" t="n">
         <v>136</v>
       </c>
-      <c r="C8" t="n">
-        <v>-102.4106441473369</v>
-      </c>
-      <c r="D8" t="n">
-        <v>362.5867914373903</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1084,12 +1032,6 @@
       <c r="B9" t="n">
         <v>139</v>
       </c>
-      <c r="C9" t="n">
-        <v>-113.60474088651</v>
-      </c>
-      <c r="D9" t="n">
-        <v>373.0090056052965</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1098,12 +1040,6 @@
       <c r="B10" t="n">
         <v>144</v>
       </c>
-      <c r="C10" t="n">
-        <v>-93.72028888070989</v>
-      </c>
-      <c r="D10" t="n">
-        <v>375.5970089838463</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1112,12 +1048,6 @@
       <c r="B11" t="n">
         <v>149</v>
       </c>
-      <c r="C11" t="n">
-        <v>-87.85748087054564</v>
-      </c>
-      <c r="D11" t="n">
-        <v>382.37638891834</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1126,12 +1056,6 @@
       <c r="B12" t="n">
         <v>163</v>
       </c>
-      <c r="C12" t="n">
-        <v>-77.38738791736439</v>
-      </c>
-      <c r="D12" t="n">
-        <v>400.2629960775457</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1140,12 +1064,6 @@
       <c r="B13" t="n">
         <v>166</v>
       </c>
-      <c r="C13" t="n">
-        <v>-62.43120816204673</v>
-      </c>
-      <c r="D13" t="n">
-        <v>395.476202352789</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1154,12 +1072,6 @@
       <c r="B14" t="n">
         <v>171</v>
       </c>
-      <c r="C14" t="n">
-        <v>-61.51713509115232</v>
-      </c>
-      <c r="D14" t="n">
-        <v>414.9496011690355</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1168,12 +1080,6 @@
       <c r="B15" t="n">
         <v>174</v>
       </c>
-      <c r="C15" t="n">
-        <v>-54.08958119714394</v>
-      </c>
-      <c r="D15" t="n">
-        <v>418.8718452218005</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1182,12 +1088,6 @@
       <c r="B16" t="n">
         <v>177</v>
       </c>
-      <c r="C16" t="n">
-        <v>-57.32305804885316</v>
-      </c>
-      <c r="D16" t="n">
-        <v>420.8421125291805</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1196,12 +1096,6 @@
       <c r="B17" t="n">
         <v>179</v>
       </c>
-      <c r="C17" t="n">
-        <v>-57.17297093155749</v>
-      </c>
-      <c r="D17" t="n">
-        <v>417.5161262756209</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1210,12 +1104,6 @@
       <c r="B18" t="n">
         <v>182</v>
       </c>
-      <c r="C18" t="n">
-        <v>-49.02970917071449</v>
-      </c>
-      <c r="D18" t="n">
-        <v>411.6974304729098</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1224,12 +1112,6 @@
       <c r="B19" t="n">
         <v>185</v>
       </c>
-      <c r="C19" t="n">
-        <v>-51.8154312328558</v>
-      </c>
-      <c r="D19" t="n">
-        <v>418.6991387805896</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1238,12 +1120,6 @@
       <c r="B20" t="n">
         <v>188</v>
       </c>
-      <c r="C20" t="n">
-        <v>-42.38573500454984</v>
-      </c>
-      <c r="D20" t="n">
-        <v>417.9707423723924</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1252,12 +1128,6 @@
       <c r="B21" t="n">
         <v>190</v>
       </c>
-      <c r="C21" t="n">
-        <v>-44.5088717253438</v>
-      </c>
-      <c r="D21" t="n">
-        <v>439.5366457072464</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1266,12 +1136,6 @@
       <c r="B22" t="n">
         <v>193</v>
       </c>
-      <c r="C22" t="n">
-        <v>-34.7310899184376</v>
-      </c>
-      <c r="D22" t="n">
-        <v>419.1336562286577</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1280,12 +1144,6 @@
       <c r="B23" t="n">
         <v>196</v>
       </c>
-      <c r="C23" t="n">
-        <v>-38.01556362398571</v>
-      </c>
-      <c r="D23" t="n">
-        <v>438.7405909714103</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1294,12 +1152,6 @@
       <c r="B24" t="n">
         <v>199</v>
       </c>
-      <c r="C24" t="n">
-        <v>-36.0085060271548</v>
-      </c>
-      <c r="D24" t="n">
-        <v>427.9817112156763</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1308,12 +1160,6 @@
       <c r="B25" t="n">
         <v>201</v>
       </c>
-      <c r="C25" t="n">
-        <v>-49.95994729018464</v>
-      </c>
-      <c r="D25" t="n">
-        <v>439.4064749490021</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1322,12 +1168,6 @@
       <c r="B26" t="n">
         <v>204</v>
       </c>
-      <c r="C26" t="n">
-        <v>-40.56858916520811</v>
-      </c>
-      <c r="D26" t="n">
-        <v>432.3687288136867</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1336,12 +1176,6 @@
       <c r="B27" t="n">
         <v>207</v>
       </c>
-      <c r="C27" t="n">
-        <v>-24.06466678379608</v>
-      </c>
-      <c r="D27" t="n">
-        <v>432.5019380378122</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1350,12 +1184,6 @@
       <c r="B28" t="n">
         <v>209</v>
       </c>
-      <c r="C28" t="n">
-        <v>-19.81298383345885</v>
-      </c>
-      <c r="D28" t="n">
-        <v>431.9542729503685</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1364,12 +1192,6 @@
       <c r="B29" t="n">
         <v>212</v>
       </c>
-      <c r="C29" t="n">
-        <v>-34.88237528440877</v>
-      </c>
-      <c r="D29" t="n">
-        <v>458.0514456595895</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1378,12 +1200,6 @@
       <c r="B30" t="n">
         <v>223</v>
       </c>
-      <c r="C30" t="n">
-        <v>-34.25325023612307</v>
-      </c>
-      <c r="D30" t="n">
-        <v>458.9536195565209</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1392,12 +1208,6 @@
       <c r="B31" t="n">
         <v>226</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.9968247477412029</v>
-      </c>
-      <c r="D31" t="n">
-        <v>461.6695466160965</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1406,12 +1216,6 @@
       <c r="B32" t="n">
         <v>229</v>
       </c>
-      <c r="C32" t="n">
-        <v>-18.2350422890955</v>
-      </c>
-      <c r="D32" t="n">
-        <v>461.1425696017527</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1420,12 +1224,6 @@
       <c r="B33" t="n">
         <v>231</v>
       </c>
-      <c r="C33" t="n">
-        <v>-1.643392889149597</v>
-      </c>
-      <c r="D33" t="n">
-        <v>476.3093084494071</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1434,12 +1232,6 @@
       <c r="B34" t="n">
         <v>234</v>
       </c>
-      <c r="C34" t="n">
-        <v>12.37181936150104</v>
-      </c>
-      <c r="D34" t="n">
-        <v>470.4543329245977</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1448,12 +1240,6 @@
       <c r="B35" t="n">
         <v>237</v>
       </c>
-      <c r="C35" t="n">
-        <v>-5.922746428116626</v>
-      </c>
-      <c r="D35" t="n">
-        <v>474.3152894898026</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1462,12 +1248,6 @@
       <c r="B36" t="n">
         <v>245</v>
       </c>
-      <c r="C36" t="n">
-        <v>13.19799350058734</v>
-      </c>
-      <c r="D36" t="n">
-        <v>489.9888389734171</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1476,12 +1256,6 @@
       <c r="B37" t="n">
         <v>250</v>
       </c>
-      <c r="C37" t="n">
-        <v>8.76704516098094</v>
-      </c>
-      <c r="D37" t="n">
-        <v>491.1646070263494</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1490,12 +1264,6 @@
       <c r="B38" t="n">
         <v>253</v>
       </c>
-      <c r="C38" t="n">
-        <v>28.98448228462037</v>
-      </c>
-      <c r="D38" t="n">
-        <v>506.2623726520646</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1504,12 +1272,6 @@
       <c r="B39" t="n">
         <v>261</v>
       </c>
-      <c r="C39" t="n">
-        <v>25.17344832978434</v>
-      </c>
-      <c r="D39" t="n">
-        <v>501.6410652243907</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1518,12 +1280,6 @@
       <c r="B40" t="n">
         <v>264</v>
       </c>
-      <c r="C40" t="n">
-        <v>55.0736751118088</v>
-      </c>
-      <c r="D40" t="n">
-        <v>502.0947779374379</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1532,12 +1288,6 @@
       <c r="B41" t="n">
         <v>267</v>
       </c>
-      <c r="C41" t="n">
-        <v>23.91496440748239</v>
-      </c>
-      <c r="D41" t="n">
-        <v>496.0279620946152</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1546,12 +1296,6 @@
       <c r="B42" t="n">
         <v>272</v>
       </c>
-      <c r="C42" t="n">
-        <v>37.28652609848183</v>
-      </c>
-      <c r="D42" t="n">
-        <v>514.3495320984071</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1560,12 +1304,6 @@
       <c r="B43" t="n">
         <v>275</v>
       </c>
-      <c r="C43" t="n">
-        <v>64.18303946428389</v>
-      </c>
-      <c r="D43" t="n">
-        <v>513.4835015579508</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1574,12 +1312,6 @@
       <c r="B44" t="n">
         <v>278</v>
       </c>
-      <c r="C44" t="n">
-        <v>46.5186694792175</v>
-      </c>
-      <c r="D44" t="n">
-        <v>522.3153836468186</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1588,12 +1320,6 @@
       <c r="B45" t="n">
         <v>280</v>
       </c>
-      <c r="C45" t="n">
-        <v>49.06415393643122</v>
-      </c>
-      <c r="D45" t="n">
-        <v>528.4333495805208</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1602,12 +1328,6 @@
       <c r="B46" t="n">
         <v>283</v>
       </c>
-      <c r="C46" t="n">
-        <v>48.37889144243586</v>
-      </c>
-      <c r="D46" t="n">
-        <v>516.1232701564196</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1616,12 +1336,6 @@
       <c r="B47" t="n">
         <v>286</v>
       </c>
-      <c r="C47" t="n">
-        <v>31.85919456531957</v>
-      </c>
-      <c r="D47" t="n">
-        <v>507.500683835346</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1630,12 +1344,6 @@
       <c r="B48" t="n">
         <v>288</v>
       </c>
-      <c r="C48" t="n">
-        <v>59.85217860457219</v>
-      </c>
-      <c r="D48" t="n">
-        <v>530.457692792282</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1644,12 +1352,6 @@
       <c r="B49" t="n">
         <v>291</v>
       </c>
-      <c r="C49" t="n">
-        <v>52.43309621758998</v>
-      </c>
-      <c r="D49" t="n">
-        <v>517.3712790853696</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1658,12 +1360,6 @@
       <c r="B50" t="n">
         <v>294</v>
       </c>
-      <c r="C50" t="n">
-        <v>57.64004566347948</v>
-      </c>
-      <c r="D50" t="n">
-        <v>534.777170274275</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1672,12 +1368,6 @@
       <c r="B51" t="n">
         <v>297</v>
       </c>
-      <c r="C51" t="n">
-        <v>53.19669807961105</v>
-      </c>
-      <c r="D51" t="n">
-        <v>536.4971219345314</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1685,12 +1375,6 @@
       </c>
       <c r="B52" t="n">
         <v>299</v>
-      </c>
-      <c r="C52" t="n">
-        <v>45.64139261495534</v>
-      </c>
-      <c r="D52" t="n">
-        <v>525.4291754058731</v>
       </c>
     </row>
   </sheetData>
